--- a/test_gd4/settings/sample/示例.xlsx
+++ b/test_gd4/settings/sample/示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20280" windowHeight="17475" activeTab="2"/>
+    <workbookView windowWidth="32205" windowHeight="18060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="~首页" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
   <si>
     <t>恭喜你！</t>
   </si>
@@ -281,12 +281,48 @@
     <t>id</t>
   </si>
   <si>
-    <t>function_params</t>
+    <t>_int</t>
+  </si>
+  <si>
+    <t>_float</t>
+  </si>
+  <si>
+    <t>_string</t>
+  </si>
+  <si>
+    <t>_bool</t>
+  </si>
+  <si>
+    <t>_array</t>
+  </si>
+  <si>
+    <t>_array_str</t>
+  </si>
+  <si>
+    <t>_array_bool</t>
+  </si>
+  <si>
+    <t>_dict</t>
+  </si>
+  <si>
+    <t>_function</t>
+  </si>
+  <si>
+    <t>_function_params</t>
   </si>
   <si>
     <t>*string</t>
   </si>
   <si>
+    <t>_tr_string</t>
+  </si>
+  <si>
+    <t>_tr_array_str</t>
+  </si>
+  <si>
+    <t>_tr_dict</t>
+  </si>
+  <si>
     <t>恭喜你！成功配置好了Godot导表项目。</t>
   </si>
   <si>
@@ -302,10 +338,13 @@
     <t>"name":"Tom"|"age":10</t>
   </si>
   <si>
-    <t>print(args)</t>
-  </si>
-  <si>
-    <t>print(a)</t>
+    <t xml:space="preserve">print(args)
+return args
+</t>
+  </si>
+  <si>
+    <t>print(a)
+return [a,b,c]</t>
   </si>
   <si>
     <t>这段话你在表里看不到</t>
@@ -336,6 +375,15 @@
 我，整个城市都是我的。
 等警察抓住你们的时候......你会死的毫无意义。这里是我的地盘。
 你...你....你就是人们要躲避的东西。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_float </t>
+  </si>
+  <si>
+    <t>print(args)</t>
+  </si>
+  <si>
+    <t>print(a)</t>
   </si>
   <si>
     <t>这段话需要翻译1</t>
@@ -989,13 +1037,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1327,12 +1378,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" ht="89.25" spans="2:2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="89.25" spans="2:2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1347,8 +1398,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1470,50 +1521,50 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" ht="42.75" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1524,43 +1575,43 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1568,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1585,22 +1636,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1614,7 +1665,7 @@
         <v>3.01</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="57" spans="1:12">
@@ -1625,7 +1676,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="L8" s="5"/>
     </row>
@@ -1647,8 +1698,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1770,47 +1821,47 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1824,43 +1875,43 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
         <v>50</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1868,10 +1919,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1888,25 +1939,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1920,10 +1971,10 @@
         <v>3.01</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="57" spans="1:12">
@@ -1934,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="L8" s="5"/>
     </row>
